--- a/data/pca/factorExposure/factorExposure_2009-02-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01664882896084399</v>
+        <v>0.01519131465331203</v>
       </c>
       <c r="C2">
-        <v>-0.008776651634139706</v>
+        <v>0.01024918483457198</v>
       </c>
       <c r="D2">
-        <v>-0.01717863635329392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01621543266365953</v>
+      </c>
+      <c r="E2">
+        <v>0.0008087401146938712</v>
+      </c>
+      <c r="F2">
+        <v>-0.005966261303517078</v>
+      </c>
+      <c r="G2">
+        <v>0.01834992109947369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08186941138519863</v>
+        <v>0.08417864143661929</v>
       </c>
       <c r="C4">
-        <v>-0.08093662952840407</v>
+        <v>0.08645172177805303</v>
       </c>
       <c r="D4">
-        <v>0.06531512689930913</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06437046690935531</v>
+      </c>
+      <c r="E4">
+        <v>-0.009684395030555305</v>
+      </c>
+      <c r="F4">
+        <v>-0.03991224860459621</v>
+      </c>
+      <c r="G4">
+        <v>0.02854429967727743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002530637234747442</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001354167543597074</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0006023489907636965</v>
+      </c>
+      <c r="E5">
+        <v>0.003178185029952972</v>
+      </c>
+      <c r="F5">
+        <v>0.001659989639411346</v>
+      </c>
+      <c r="G5">
+        <v>-0.001997184467024169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1677918649297919</v>
+        <v>0.170358675642393</v>
       </c>
       <c r="C6">
-        <v>0.01952105833622567</v>
+        <v>-0.01135757543873788</v>
       </c>
       <c r="D6">
-        <v>0.05617338389143978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05676212100071076</v>
+      </c>
+      <c r="E6">
+        <v>-0.01908983387428503</v>
+      </c>
+      <c r="F6">
+        <v>0.05497300592581238</v>
+      </c>
+      <c r="G6">
+        <v>-0.01498724771521737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05456156825751877</v>
+        <v>0.05902004426172182</v>
       </c>
       <c r="C7">
-        <v>-0.05622059928258755</v>
+        <v>0.06212223997431603</v>
       </c>
       <c r="D7">
-        <v>0.04586439855764475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05328063927881444</v>
+      </c>
+      <c r="E7">
+        <v>-0.04805735339434415</v>
+      </c>
+      <c r="F7">
+        <v>-0.06695644191832237</v>
+      </c>
+      <c r="G7">
+        <v>0.04325629392318541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05769289030677771</v>
+        <v>0.05396182910856904</v>
       </c>
       <c r="C8">
-        <v>-0.04697026120532254</v>
+        <v>0.04802337386666544</v>
       </c>
       <c r="D8">
-        <v>-0.02254775207153471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02158058057810365</v>
+      </c>
+      <c r="E8">
+        <v>0.03183697208800011</v>
+      </c>
+      <c r="F8">
+        <v>-0.03615963094968781</v>
+      </c>
+      <c r="G8">
+        <v>-0.001569529423383647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06178447539755933</v>
+        <v>0.06503910024068049</v>
       </c>
       <c r="C9">
-        <v>-0.08728596867105172</v>
+        <v>0.09105001648112467</v>
       </c>
       <c r="D9">
-        <v>0.08681973697181829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08370437794650119</v>
+      </c>
+      <c r="E9">
+        <v>-0.01451341265308108</v>
+      </c>
+      <c r="F9">
+        <v>-0.06423157651522768</v>
+      </c>
+      <c r="G9">
+        <v>0.00290567148998547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1059539026281597</v>
+        <v>0.09887338304920353</v>
       </c>
       <c r="C10">
-        <v>0.1540407392445514</v>
+        <v>-0.1463613121194198</v>
       </c>
       <c r="D10">
-        <v>-0.1087285104146665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.09816117758262415</v>
+      </c>
+      <c r="E10">
+        <v>-0.004144621254174329</v>
+      </c>
+      <c r="F10">
+        <v>-0.04555223221332987</v>
+      </c>
+      <c r="G10">
+        <v>-0.006583397147114278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07932891392963975</v>
+        <v>0.07718323334575153</v>
       </c>
       <c r="C11">
-        <v>-0.1277169508247565</v>
+        <v>0.1273679228119428</v>
       </c>
       <c r="D11">
-        <v>0.05333936949677508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04527552107195853</v>
+      </c>
+      <c r="E11">
+        <v>0.01025268268305093</v>
+      </c>
+      <c r="F11">
+        <v>-0.08137175239061534</v>
+      </c>
+      <c r="G11">
+        <v>0.005478990236391069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08355855255327639</v>
+        <v>0.07921467307077289</v>
       </c>
       <c r="C12">
-        <v>-0.1461779569518893</v>
+        <v>0.1477805702156227</v>
       </c>
       <c r="D12">
-        <v>0.05748455002501851</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05316880103653576</v>
+      </c>
+      <c r="E12">
+        <v>0.0005114975742678581</v>
+      </c>
+      <c r="F12">
+        <v>-0.08832831758452571</v>
+      </c>
+      <c r="G12">
+        <v>0.007658161840240129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04224835766266497</v>
+        <v>0.04235230220703437</v>
       </c>
       <c r="C13">
-        <v>-0.06162418236521611</v>
+        <v>0.06977327458153151</v>
       </c>
       <c r="D13">
-        <v>0.02572648272972534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02628785044890226</v>
+      </c>
+      <c r="E13">
+        <v>-0.01006442320669137</v>
+      </c>
+      <c r="F13">
+        <v>-0.08045014606746741</v>
+      </c>
+      <c r="G13">
+        <v>0.0110879411620608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02000124535013584</v>
+        <v>0.02288692150511389</v>
       </c>
       <c r="C14">
-        <v>-0.04102695195036482</v>
+        <v>0.041838796288151</v>
       </c>
       <c r="D14">
-        <v>0.04835096764563034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04402260645704385</v>
+      </c>
+      <c r="E14">
+        <v>0.005703109446944192</v>
+      </c>
+      <c r="F14">
+        <v>-0.0878345917492125</v>
+      </c>
+      <c r="G14">
+        <v>-0.002735282578868639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03120643986571537</v>
+        <v>0.03358485536895821</v>
       </c>
       <c r="C15">
-        <v>-0.05725773840586285</v>
+        <v>0.05670611838336125</v>
       </c>
       <c r="D15">
-        <v>0.04467867786001843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0397610842898003</v>
+      </c>
+      <c r="E15">
+        <v>-0.01289600788140855</v>
+      </c>
+      <c r="F15">
+        <v>-0.03455819793891229</v>
+      </c>
+      <c r="G15">
+        <v>-0.00923220619913189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05791082653785352</v>
+        <v>0.05792392940770484</v>
       </c>
       <c r="C16">
-        <v>-0.1425189066718525</v>
+        <v>0.1422057518959217</v>
       </c>
       <c r="D16">
-        <v>0.06636198312821605</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05767144478731558</v>
+      </c>
+      <c r="E16">
+        <v>0.02385069300123725</v>
+      </c>
+      <c r="F16">
+        <v>-0.08438012958228901</v>
+      </c>
+      <c r="G16">
+        <v>0.009380953341574674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004927465612986741</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004335199353047459</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001356439615524884</v>
+      </c>
+      <c r="E17">
+        <v>0.01038413989888551</v>
+      </c>
+      <c r="F17">
+        <v>0.004488639772614084</v>
+      </c>
+      <c r="G17">
+        <v>-0.01701625324864865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03486007977286313</v>
+        <v>0.05142736320486095</v>
       </c>
       <c r="C18">
-        <v>-0.0443580064752527</v>
+        <v>0.03930060445188487</v>
       </c>
       <c r="D18">
-        <v>-0.003957624324776965</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01118109695171829</v>
+      </c>
+      <c r="E18">
+        <v>0.003524791824368978</v>
+      </c>
+      <c r="F18">
+        <v>0.04462438594806309</v>
+      </c>
+      <c r="G18">
+        <v>-0.01121701527634367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05726029442846906</v>
+        <v>0.05736309447349541</v>
       </c>
       <c r="C20">
-        <v>-0.09297654264154889</v>
+        <v>0.09280720897295712</v>
       </c>
       <c r="D20">
-        <v>0.07414684736993404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07142695234153985</v>
+      </c>
+      <c r="E20">
+        <v>0.01364759303832618</v>
+      </c>
+      <c r="F20">
+        <v>-0.07342960628976847</v>
+      </c>
+      <c r="G20">
+        <v>-0.005095649456637277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0422294304374736</v>
+        <v>0.0441874008489623</v>
       </c>
       <c r="C21">
-        <v>-0.05419193843108849</v>
+        <v>0.05306876250920406</v>
       </c>
       <c r="D21">
-        <v>0.0007359654797124107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0007715209956264643</v>
+      </c>
+      <c r="E21">
+        <v>-0.01004917836393785</v>
+      </c>
+      <c r="F21">
+        <v>-0.07724044370007968</v>
+      </c>
+      <c r="G21">
+        <v>0.0282063594400895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0446144651196697</v>
+        <v>0.04318091657790198</v>
       </c>
       <c r="C22">
-        <v>-0.01876278124974841</v>
+        <v>0.02047046611917743</v>
       </c>
       <c r="D22">
-        <v>-0.01582785169502639</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03717163938003976</v>
+      </c>
+      <c r="E22">
+        <v>0.1281335496315393</v>
+      </c>
+      <c r="F22">
+        <v>0.01605994553693853</v>
+      </c>
+      <c r="G22">
+        <v>0.0002622242344167114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04462385619636079</v>
+        <v>0.04318887736607871</v>
       </c>
       <c r="C23">
-        <v>-0.01875499252219383</v>
+        <v>0.02046379207377391</v>
       </c>
       <c r="D23">
-        <v>-0.0158533896870429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03719884684507163</v>
+      </c>
+      <c r="E23">
+        <v>0.1281695036217747</v>
+      </c>
+      <c r="F23">
+        <v>0.01605105885662953</v>
+      </c>
+      <c r="G23">
+        <v>0.0002281578022301057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06746640266281642</v>
+        <v>0.06673776512912211</v>
       </c>
       <c r="C24">
-        <v>-0.1361327747203453</v>
+        <v>0.134423538768722</v>
       </c>
       <c r="D24">
-        <v>0.05906743650131137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05291823124592174</v>
+      </c>
+      <c r="E24">
+        <v>0.005115197958715405</v>
+      </c>
+      <c r="F24">
+        <v>-0.07732477623178925</v>
+      </c>
+      <c r="G24">
+        <v>0.01030758222590326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07266676026586119</v>
+        <v>0.07097595036163762</v>
       </c>
       <c r="C25">
-        <v>-0.1206137774677518</v>
+        <v>0.1189724659620428</v>
       </c>
       <c r="D25">
-        <v>0.04309917447525517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03445824052682781</v>
+      </c>
+      <c r="E25">
+        <v>-0.02219776970425541</v>
+      </c>
+      <c r="F25">
+        <v>-0.09144671210470595</v>
+      </c>
+      <c r="G25">
+        <v>0.01529241892152239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05543825842982737</v>
+        <v>0.05987187529309077</v>
       </c>
       <c r="C26">
-        <v>-0.06402240943860917</v>
+        <v>0.06503123112460291</v>
       </c>
       <c r="D26">
-        <v>0.02105187270771791</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01733884849311942</v>
+      </c>
+      <c r="E26">
+        <v>0.007787715487410851</v>
+      </c>
+      <c r="F26">
+        <v>-0.08390796870619667</v>
+      </c>
+      <c r="G26">
+        <v>-0.000546517886092342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1692709113136872</v>
+        <v>0.1720438405046746</v>
       </c>
       <c r="C28">
-        <v>0.2305768043346295</v>
+        <v>-0.2312820990229138</v>
       </c>
       <c r="D28">
-        <v>-0.02402302491793639</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02986066271103268</v>
+      </c>
+      <c r="E28">
+        <v>-0.06125636568612974</v>
+      </c>
+      <c r="F28">
+        <v>-0.1290799615632704</v>
+      </c>
+      <c r="G28">
+        <v>0.0004619587739323147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02414018867110537</v>
+        <v>0.02699504415908482</v>
       </c>
       <c r="C29">
-        <v>-0.04581008411425439</v>
+        <v>0.04366085007675372</v>
       </c>
       <c r="D29">
-        <v>0.01006349361103638</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006417833651040959</v>
+      </c>
+      <c r="E29">
+        <v>0.02495098044076721</v>
+      </c>
+      <c r="F29">
+        <v>-0.07817612402164958</v>
+      </c>
+      <c r="G29">
+        <v>0.001286374782211768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04039198423598121</v>
+        <v>0.04258206462349496</v>
       </c>
       <c r="C30">
-        <v>-0.06883601061281217</v>
+        <v>0.07647399471390565</v>
       </c>
       <c r="D30">
-        <v>0.1161801121851749</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1021272661992323</v>
+      </c>
+      <c r="E30">
+        <v>-0.06689701255856181</v>
+      </c>
+      <c r="F30">
+        <v>-0.07872091631828247</v>
+      </c>
+      <c r="G30">
+        <v>-0.02379846725645859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05234810566756933</v>
+        <v>0.05164520695357208</v>
       </c>
       <c r="C31">
-        <v>-0.03164917112144794</v>
+        <v>0.03494616902594932</v>
       </c>
       <c r="D31">
-        <v>0.01188245494289028</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01513258529414659</v>
+      </c>
+      <c r="E31">
+        <v>0.0343373431125723</v>
+      </c>
+      <c r="F31">
+        <v>-0.0157215465442346</v>
+      </c>
+      <c r="G31">
+        <v>0.02442285296539173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04338421966173427</v>
+        <v>0.04794601160409722</v>
       </c>
       <c r="C32">
-        <v>-0.04676010914427237</v>
+        <v>0.04393448988880812</v>
       </c>
       <c r="D32">
-        <v>0.01990199852257714</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.02047567319228648</v>
+      </c>
+      <c r="E32">
+        <v>0.03095187534832566</v>
+      </c>
+      <c r="F32">
+        <v>-0.009160804942644337</v>
+      </c>
+      <c r="G32">
+        <v>-0.0150629779971623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0791489353451259</v>
+        <v>0.08259813886237892</v>
       </c>
       <c r="C33">
-        <v>-0.1078384189501889</v>
+        <v>0.1164441368102692</v>
       </c>
       <c r="D33">
-        <v>0.06665844250745309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06687100534766606</v>
+      </c>
+      <c r="E33">
+        <v>0.01350197647729512</v>
+      </c>
+      <c r="F33">
+        <v>-0.0778667558772289</v>
+      </c>
+      <c r="G33">
+        <v>0.006988750146782428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05627651207583383</v>
+        <v>0.05591235811854126</v>
       </c>
       <c r="C34">
-        <v>-0.1202833609971932</v>
+        <v>0.1219110167775449</v>
       </c>
       <c r="D34">
-        <v>0.07472679658543623</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.06093019259999854</v>
+      </c>
+      <c r="E34">
+        <v>-0.0252593073479215</v>
+      </c>
+      <c r="F34">
+        <v>-0.08773172390090585</v>
+      </c>
+      <c r="G34">
+        <v>-0.01872313508706826</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02688634619473254</v>
+        <v>0.02878718976087152</v>
       </c>
       <c r="C35">
-        <v>-0.01609784086746894</v>
+        <v>0.01728915953963832</v>
       </c>
       <c r="D35">
-        <v>0.02469444160813892</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02047937701393715</v>
+      </c>
+      <c r="E35">
+        <v>0.02033141895518045</v>
+      </c>
+      <c r="F35">
+        <v>-0.04049013169576895</v>
+      </c>
+      <c r="G35">
+        <v>-0.02493328012549206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02220989237601751</v>
+        <v>0.02700594710270452</v>
       </c>
       <c r="C36">
-        <v>-0.04461030266612926</v>
+        <v>0.04538886298736257</v>
       </c>
       <c r="D36">
-        <v>0.05876986008459034</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04916216862932953</v>
+      </c>
+      <c r="E36">
+        <v>0.01078093644101781</v>
+      </c>
+      <c r="F36">
+        <v>-0.04472878553054525</v>
+      </c>
+      <c r="G36">
+        <v>-0.08319960579003136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003568130884669706</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006375833378970954</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-7.042526916594877e-05</v>
+      </c>
+      <c r="E37">
+        <v>0.00182301860152731</v>
+      </c>
+      <c r="F37">
+        <v>-0.009390183699032509</v>
+      </c>
+      <c r="G37">
+        <v>0.006737511631702909</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08510090608493752</v>
+        <v>0.07899442411228032</v>
       </c>
       <c r="C39">
-        <v>-0.1517421007497684</v>
+        <v>0.1472589355577685</v>
       </c>
       <c r="D39">
-        <v>0.04215169509911659</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.03620937094651326</v>
+      </c>
+      <c r="E39">
+        <v>0.01048921320760192</v>
+      </c>
+      <c r="F39">
+        <v>-0.1240184937593403</v>
+      </c>
+      <c r="G39">
+        <v>0.05110015883311244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04527103766608923</v>
+        <v>0.05091475932804163</v>
       </c>
       <c r="C40">
-        <v>-0.05813963160898963</v>
+        <v>0.06311073589538706</v>
       </c>
       <c r="D40">
-        <v>0.00921155471981774</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.003117139603611843</v>
+      </c>
+      <c r="E40">
+        <v>0.004675594404078443</v>
+      </c>
+      <c r="F40">
+        <v>-0.06256036329136988</v>
+      </c>
+      <c r="G40">
+        <v>-0.03660720780520513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02684980508901131</v>
+        <v>0.02866829950258075</v>
       </c>
       <c r="C41">
-        <v>-0.02106479214000711</v>
+        <v>0.02212363937400225</v>
       </c>
       <c r="D41">
-        <v>-0.008964220434187072</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.007106278927487122</v>
+      </c>
+      <c r="E41">
+        <v>0.009162317198646394</v>
+      </c>
+      <c r="F41">
+        <v>0.01171082552803248</v>
+      </c>
+      <c r="G41">
+        <v>-0.01365987550406892</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04290259075771366</v>
+        <v>0.04194875472289755</v>
       </c>
       <c r="C43">
-        <v>-0.03902978092705882</v>
+        <v>0.03674097132078628</v>
       </c>
       <c r="D43">
-        <v>0.001112006454576405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0003293926416173992</v>
+      </c>
+      <c r="E43">
+        <v>0.02792788865315288</v>
+      </c>
+      <c r="F43">
+        <v>-0.02576458988318562</v>
+      </c>
+      <c r="G43">
+        <v>0.003999602580277706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05590694790310426</v>
+        <v>0.0640952857573233</v>
       </c>
       <c r="C44">
-        <v>-0.07929181687859535</v>
+        <v>0.08658788690391699</v>
       </c>
       <c r="D44">
-        <v>0.2692019372058932</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.2459750282294449</v>
+      </c>
+      <c r="E44">
+        <v>-0.05288977311206446</v>
+      </c>
+      <c r="F44">
+        <v>-0.186953998285271</v>
+      </c>
+      <c r="G44">
+        <v>-0.1693470382879484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-2.359585340841431e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.000411806492853555</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-4.46569077805022e-05</v>
+      </c>
+      <c r="E45">
+        <v>6.268890835999831e-05</v>
+      </c>
+      <c r="F45">
+        <v>-7.468427050126317e-05</v>
+      </c>
+      <c r="G45">
+        <v>0.0003700893172727418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02644188943856812</v>
+        <v>0.02695527825126462</v>
       </c>
       <c r="C46">
-        <v>-0.03048005449530422</v>
+        <v>0.02959614537813733</v>
       </c>
       <c r="D46">
-        <v>0.01115852509432508</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009244782444328088</v>
+      </c>
+      <c r="E46">
+        <v>0.03714141435090225</v>
+      </c>
+      <c r="F46">
+        <v>-0.07052071937794378</v>
+      </c>
+      <c r="G46">
+        <v>0.03163946167280741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05191148401738586</v>
+        <v>0.0510351142676241</v>
       </c>
       <c r="C47">
-        <v>-0.0236826673422464</v>
+        <v>0.02603996714621845</v>
       </c>
       <c r="D47">
-        <v>-0.0204691243469634</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01179821293337779</v>
+      </c>
+      <c r="E47">
+        <v>0.05901085108408635</v>
+      </c>
+      <c r="F47">
+        <v>0.01463094067714713</v>
+      </c>
+      <c r="G47">
+        <v>0.03373395936243224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04665582603396349</v>
+        <v>0.05027890049183172</v>
       </c>
       <c r="C48">
-        <v>-0.06682158643665798</v>
+        <v>0.06554630180906386</v>
       </c>
       <c r="D48">
-        <v>0.02113466860408904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01753373946884036</v>
+      </c>
+      <c r="E48">
+        <v>-0.01704695910257291</v>
+      </c>
+      <c r="F48">
+        <v>-0.05467672663244084</v>
+      </c>
+      <c r="G48">
+        <v>0.02294775882993834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1951398158091975</v>
+        <v>0.1981279023129782</v>
       </c>
       <c r="C49">
-        <v>0.0147578476724304</v>
+        <v>-0.007717475681041528</v>
       </c>
       <c r="D49">
-        <v>0.03170803489559976</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.04009791459808919</v>
+      </c>
+      <c r="E49">
+        <v>-0.03117958723178583</v>
+      </c>
+      <c r="F49">
+        <v>0.06276832163129646</v>
+      </c>
+      <c r="G49">
+        <v>-0.01087257672288102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05049207344459747</v>
+        <v>0.05204091319125464</v>
       </c>
       <c r="C50">
-        <v>-0.02962330825336707</v>
+        <v>0.03261526725830804</v>
       </c>
       <c r="D50">
-        <v>0.0206979755280888</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02550843699041372</v>
+      </c>
+      <c r="E50">
+        <v>0.02402316312130719</v>
+      </c>
+      <c r="F50">
+        <v>-0.008808199022101539</v>
+      </c>
+      <c r="G50">
+        <v>0.02275442362314292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1446465430180533</v>
+        <v>0.1382892509465541</v>
       </c>
       <c r="C52">
-        <v>-0.03573711402020922</v>
+        <v>0.03663745002451754</v>
       </c>
       <c r="D52">
-        <v>0.06066032296246055</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.06016932523376108</v>
+      </c>
+      <c r="E52">
+        <v>0.02127995016697319</v>
+      </c>
+      <c r="F52">
+        <v>0.06417391640254282</v>
+      </c>
+      <c r="G52">
+        <v>0.02704240075389252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1749932842488823</v>
+        <v>0.1659191746940853</v>
       </c>
       <c r="C53">
-        <v>-0.003346708133999312</v>
+        <v>0.0064537446337986</v>
       </c>
       <c r="D53">
-        <v>0.1024671212581387</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.1091519123296775</v>
+      </c>
+      <c r="E53">
+        <v>0.01167285573674821</v>
+      </c>
+      <c r="F53">
+        <v>0.1099178601269314</v>
+      </c>
+      <c r="G53">
+        <v>0.05936164258210291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01107600727219767</v>
+        <v>0.01436451384226496</v>
       </c>
       <c r="C54">
-        <v>-0.02896899594174252</v>
+        <v>0.02921299131899683</v>
       </c>
       <c r="D54">
-        <v>0.01288986995512336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0130746489037942</v>
+      </c>
+      <c r="E54">
+        <v>0.01590738631440928</v>
+      </c>
+      <c r="F54">
+        <v>-0.06065994498679164</v>
+      </c>
+      <c r="G54">
+        <v>-0.005071615153193079</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1206842368072096</v>
+        <v>0.1168795607585129</v>
       </c>
       <c r="C55">
-        <v>-0.005955624272414974</v>
+        <v>0.01218067038709278</v>
       </c>
       <c r="D55">
-        <v>0.06749711263088894</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.07100433292640948</v>
+      </c>
+      <c r="E55">
+        <v>0.04350131270588963</v>
+      </c>
+      <c r="F55">
+        <v>0.03179457131039274</v>
+      </c>
+      <c r="G55">
+        <v>0.06719626931514681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1812736380255162</v>
+        <v>0.1735896193067499</v>
       </c>
       <c r="C56">
-        <v>0.002091248902565299</v>
+        <v>-0.001025242776359616</v>
       </c>
       <c r="D56">
-        <v>0.0530753906897433</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.06268415306612914</v>
+      </c>
+      <c r="E56">
+        <v>0.03847295690411658</v>
+      </c>
+      <c r="F56">
+        <v>0.1445108417408197</v>
+      </c>
+      <c r="G56">
+        <v>0.06265020649779438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04547940455127487</v>
+        <v>0.04515084237575602</v>
       </c>
       <c r="C58">
-        <v>-0.0912148843379702</v>
+        <v>0.09808488361032723</v>
       </c>
       <c r="D58">
-        <v>-0.006887814343016731</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.001295982738228794</v>
+      </c>
+      <c r="E58">
+        <v>0.04593980081242948</v>
+      </c>
+      <c r="F58">
+        <v>-0.0428978351243487</v>
+      </c>
+      <c r="G58">
+        <v>0.01975268969491861</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1858207983912217</v>
+        <v>0.1887092442684266</v>
       </c>
       <c r="C59">
-        <v>0.1859150911204859</v>
+        <v>-0.1893118644027424</v>
       </c>
       <c r="D59">
-        <v>-0.08144574271630153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.08089116324183929</v>
+      </c>
+      <c r="E59">
+        <v>0.005972186939458502</v>
+      </c>
+      <c r="F59">
+        <v>-0.05366675392874971</v>
+      </c>
+      <c r="G59">
+        <v>0.03908675209147656</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2170434436135909</v>
+        <v>0.2115965631066334</v>
       </c>
       <c r="C60">
-        <v>-0.01515100694621688</v>
+        <v>0.02125640545654067</v>
       </c>
       <c r="D60">
-        <v>-0.05137454612410051</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03291890374820094</v>
+      </c>
+      <c r="E60">
+        <v>0.0181685548830068</v>
+      </c>
+      <c r="F60">
+        <v>0.2154745980799244</v>
+      </c>
+      <c r="G60">
+        <v>0.07428291603522087</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06596903875353255</v>
+        <v>0.06274282357936625</v>
       </c>
       <c r="C61">
-        <v>-0.119037119527619</v>
+        <v>0.1171619310735905</v>
       </c>
       <c r="D61">
-        <v>0.03177466579608778</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.02553906363199288</v>
+      </c>
+      <c r="E61">
+        <v>0.02111525658154039</v>
+      </c>
+      <c r="F61">
+        <v>-0.08447714164734187</v>
+      </c>
+      <c r="G61">
+        <v>0.01958733477664804</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.168061800460719</v>
+        <v>0.1641800347082513</v>
       </c>
       <c r="C62">
-        <v>0.006641532216385797</v>
+        <v>-0.003899883338398584</v>
       </c>
       <c r="D62">
-        <v>0.04251178251631879</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0540802058161414</v>
+      </c>
+      <c r="E62">
+        <v>0.03756420547749784</v>
+      </c>
+      <c r="F62">
+        <v>0.1148841137531621</v>
+      </c>
+      <c r="G62">
+        <v>0.05840763772194196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03754716428370788</v>
+        <v>0.0431131066777447</v>
       </c>
       <c r="C63">
-        <v>-0.06738701215055992</v>
+        <v>0.07110134393555577</v>
       </c>
       <c r="D63">
-        <v>0.02647159428433458</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02086639705578568</v>
+      </c>
+      <c r="E63">
+        <v>0.02755582094759364</v>
+      </c>
+      <c r="F63">
+        <v>-0.05429749518200588</v>
+      </c>
+      <c r="G63">
+        <v>-0.02471022685478217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1118951064917024</v>
+        <v>0.109657467298173</v>
       </c>
       <c r="C64">
-        <v>-0.04900875754197329</v>
+        <v>0.05290970124803815</v>
       </c>
       <c r="D64">
-        <v>0.03585974949917003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03940338951258188</v>
+      </c>
+      <c r="E64">
+        <v>0.0114589465766598</v>
+      </c>
+      <c r="F64">
+        <v>0.03204736439028722</v>
+      </c>
+      <c r="G64">
+        <v>0.0001767364899116873</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1567775953243589</v>
+        <v>0.1600581040270844</v>
       </c>
       <c r="C65">
-        <v>0.05775108071261897</v>
+        <v>-0.04820777768139618</v>
       </c>
       <c r="D65">
-        <v>0.04647311655133426</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.05326886672982965</v>
+      </c>
+      <c r="E65">
+        <v>-0.00692607736506452</v>
+      </c>
+      <c r="F65">
+        <v>0.01152699648356656</v>
+      </c>
+      <c r="G65">
+        <v>0.01597946118793466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1031411700333664</v>
+        <v>0.09608781033778239</v>
       </c>
       <c r="C66">
-        <v>-0.1301564788645095</v>
+        <v>0.130178802220592</v>
       </c>
       <c r="D66">
-        <v>0.04352615553229833</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03423401977498854</v>
+      </c>
+      <c r="E66">
+        <v>0.004286922337843714</v>
+      </c>
+      <c r="F66">
+        <v>-0.1027510572862213</v>
+      </c>
+      <c r="G66">
+        <v>0.006472555321368398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05791704412510494</v>
+        <v>0.04858841821400541</v>
       </c>
       <c r="C67">
-        <v>-0.07773170270131337</v>
+        <v>0.0710873519005068</v>
       </c>
       <c r="D67">
-        <v>-0.04998080975954708</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05021943300349008</v>
+      </c>
+      <c r="E67">
+        <v>0.08036068823760474</v>
+      </c>
+      <c r="F67">
+        <v>0.03192523855682358</v>
+      </c>
+      <c r="G67">
+        <v>-0.002398413034273351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1378042901023073</v>
+        <v>0.1410615423987545</v>
       </c>
       <c r="C68">
-        <v>0.2467711685390183</v>
+        <v>-0.2494548678094588</v>
       </c>
       <c r="D68">
-        <v>-0.04180031280800417</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0431758815026861</v>
+      </c>
+      <c r="E68">
+        <v>-0.1003615943885974</v>
+      </c>
+      <c r="F68">
+        <v>-0.1103929475792994</v>
+      </c>
+      <c r="G68">
+        <v>0.03539275510872527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03935916420006649</v>
+        <v>0.03878967100052544</v>
       </c>
       <c r="C69">
-        <v>-0.01320989532132297</v>
+        <v>0.01502926798473546</v>
       </c>
       <c r="D69">
-        <v>0.008554279936258676</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01237699056466686</v>
+      </c>
+      <c r="E69">
+        <v>0.06274056124057284</v>
+      </c>
+      <c r="F69">
+        <v>0.0418417130036581</v>
+      </c>
+      <c r="G69">
+        <v>-0.02448611337276002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07012393391336923</v>
+        <v>0.07156801571426769</v>
       </c>
       <c r="C70">
-        <v>-0.07556691107740805</v>
+        <v>0.06948712842826191</v>
       </c>
       <c r="D70">
-        <v>-0.4994010919243346</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.4006117590081362</v>
+      </c>
+      <c r="E70">
+        <v>0.2211758000913747</v>
+      </c>
+      <c r="F70">
+        <v>0.3907484743423731</v>
+      </c>
+      <c r="G70">
+        <v>0.3963585572878031</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1598801662131455</v>
+        <v>0.1645360056399691</v>
       </c>
       <c r="C71">
-        <v>0.2552594566894865</v>
+        <v>-0.2551208330712257</v>
       </c>
       <c r="D71">
-        <v>-0.04433272492258899</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.04827057969874059</v>
+      </c>
+      <c r="E71">
+        <v>-0.1109706902736108</v>
+      </c>
+      <c r="F71">
+        <v>-0.1116755645369785</v>
+      </c>
+      <c r="G71">
+        <v>0.03567874935850945</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1430286039194473</v>
+        <v>0.1481442815654746</v>
       </c>
       <c r="C72">
-        <v>-0.01347780181891181</v>
+        <v>0.01178987647098251</v>
       </c>
       <c r="D72">
-        <v>0.07496299863466921</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06687246346870689</v>
+      </c>
+      <c r="E72">
+        <v>0.0380991212444571</v>
+      </c>
+      <c r="F72">
+        <v>0.01599951967698818</v>
+      </c>
+      <c r="G72">
+        <v>-0.01115070268267472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1942486644083599</v>
+        <v>0.2010284791538434</v>
       </c>
       <c r="C73">
-        <v>-0.02158081614737287</v>
+        <v>0.0302047824808105</v>
       </c>
       <c r="D73">
-        <v>0.06679996447377119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.07521023077256456</v>
+      </c>
+      <c r="E73">
+        <v>0.06725254362865993</v>
+      </c>
+      <c r="F73">
+        <v>0.1073693239278586</v>
+      </c>
+      <c r="G73">
+        <v>-0.02439753888413464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08716984819877616</v>
+        <v>0.08613637027994435</v>
       </c>
       <c r="C74">
-        <v>-0.006523593405997863</v>
+        <v>0.01306009949634422</v>
       </c>
       <c r="D74">
-        <v>0.07739596605014476</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.08275768592469798</v>
+      </c>
+      <c r="E74">
+        <v>0.02178796725550989</v>
+      </c>
+      <c r="F74">
+        <v>0.06422883784607492</v>
+      </c>
+      <c r="G74">
+        <v>-0.004420990131214182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1238920316416854</v>
+        <v>0.1163680578743592</v>
       </c>
       <c r="C75">
-        <v>-0.02008246924821792</v>
+        <v>0.02344042115288259</v>
       </c>
       <c r="D75">
-        <v>0.05978357142249185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.06108593092893929</v>
+      </c>
+      <c r="E75">
+        <v>0.05726346875034256</v>
+      </c>
+      <c r="F75">
+        <v>0.05651306988953606</v>
+      </c>
+      <c r="G75">
+        <v>0.04248838717242332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07165525171450941</v>
+        <v>0.08648567409141857</v>
       </c>
       <c r="C77">
-        <v>-0.1200687343408911</v>
+        <v>0.1190026780356865</v>
       </c>
       <c r="D77">
-        <v>0.07121641752969637</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07289753653167536</v>
+      </c>
+      <c r="E77">
+        <v>-0.0129373504496272</v>
+      </c>
+      <c r="F77">
+        <v>-0.08080168772250969</v>
+      </c>
+      <c r="G77">
+        <v>0.1120908890018849</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.09070638677930994</v>
+        <v>0.09350018316293075</v>
       </c>
       <c r="C78">
-        <v>-0.1412896393524315</v>
+        <v>0.138120468521802</v>
       </c>
       <c r="D78">
-        <v>0.09261872547511409</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07368546561050185</v>
+      </c>
+      <c r="E78">
+        <v>-0.005630211308764068</v>
+      </c>
+      <c r="F78">
+        <v>-0.1124989807790983</v>
+      </c>
+      <c r="G78">
+        <v>0.1122023448635375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1678313817786019</v>
+        <v>0.1627680437211093</v>
       </c>
       <c r="C79">
-        <v>-0.01974407908973229</v>
+        <v>0.02021536789648357</v>
       </c>
       <c r="D79">
-        <v>0.03497238915557537</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03825215821366132</v>
+      </c>
+      <c r="E79">
+        <v>0.0381760150384748</v>
+      </c>
+      <c r="F79">
+        <v>0.050294109270027</v>
+      </c>
+      <c r="G79">
+        <v>0.04446995617011307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07536073650729791</v>
+        <v>0.07318436017961839</v>
       </c>
       <c r="C80">
-        <v>-0.05907220055974695</v>
+        <v>0.05798366073085975</v>
       </c>
       <c r="D80">
-        <v>0.008362981010105391</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.005191564490436104</v>
+      </c>
+      <c r="E80">
+        <v>0.05022478304769513</v>
+      </c>
+      <c r="F80">
+        <v>-0.121181270300221</v>
+      </c>
+      <c r="G80">
+        <v>-0.09201535414481848</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1111211895950107</v>
+        <v>0.104919795681422</v>
       </c>
       <c r="C81">
-        <v>0.01701490465293206</v>
+        <v>-0.01344064985753404</v>
       </c>
       <c r="D81">
-        <v>0.02985730149357746</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03512748192479457</v>
+      </c>
+      <c r="E81">
+        <v>0.05816070198178707</v>
+      </c>
+      <c r="F81">
+        <v>0.06182055069478325</v>
+      </c>
+      <c r="G81">
+        <v>0.01113382783848834</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1610368743176594</v>
+        <v>0.1574445749071115</v>
       </c>
       <c r="C82">
-        <v>0.02334744487289875</v>
+        <v>-0.01691309063688137</v>
       </c>
       <c r="D82">
-        <v>0.09067425532154229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.09778991045885503</v>
+      </c>
+      <c r="E82">
+        <v>0.003103390177876732</v>
+      </c>
+      <c r="F82">
+        <v>0.1007893386247276</v>
+      </c>
+      <c r="G82">
+        <v>-0.006391786239955208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05338289549660451</v>
+        <v>0.04931291065312548</v>
       </c>
       <c r="C83">
-        <v>-0.05893846259879478</v>
+        <v>0.05562712316642415</v>
       </c>
       <c r="D83">
-        <v>-0.009417675792194009</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01102977627600612</v>
+      </c>
+      <c r="E83">
+        <v>0.01128374496832989</v>
+      </c>
+      <c r="F83">
+        <v>-0.00619549219759279</v>
+      </c>
+      <c r="G83">
+        <v>0.01503889207652652</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05158839618558062</v>
+        <v>0.04862320216297627</v>
       </c>
       <c r="C84">
-        <v>-0.0745235016032962</v>
+        <v>0.07244132655967685</v>
       </c>
       <c r="D84">
-        <v>0.005411856823718707</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.00557782099322076</v>
+      </c>
+      <c r="E84">
+        <v>0.01000582021477031</v>
+      </c>
+      <c r="F84">
+        <v>0.0149451751982153</v>
+      </c>
+      <c r="G84">
+        <v>0.03194984433909196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1405473951811179</v>
+        <v>0.1343242903833237</v>
       </c>
       <c r="C85">
-        <v>-0.01076315295784179</v>
+        <v>0.01390214066711412</v>
       </c>
       <c r="D85">
-        <v>0.09513881183440036</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09470295275846022</v>
+      </c>
+      <c r="E85">
+        <v>0.01715765269459091</v>
+      </c>
+      <c r="F85">
+        <v>0.03986770709259357</v>
+      </c>
+      <c r="G85">
+        <v>0.02937697204043288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08318413385082761</v>
+        <v>0.08095308025481926</v>
       </c>
       <c r="C86">
-        <v>-0.09404461160874217</v>
+        <v>0.09612824656463519</v>
       </c>
       <c r="D86">
-        <v>-0.502456727804662</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.5585335460789053</v>
+      </c>
+      <c r="E86">
+        <v>0.474860913660132</v>
+      </c>
+      <c r="F86">
+        <v>-0.474681652120534</v>
+      </c>
+      <c r="G86">
+        <v>-0.04137774602774395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08824676247957816</v>
+        <v>0.0874100414745759</v>
       </c>
       <c r="C87">
-        <v>-0.08456531027341842</v>
+        <v>0.08623682524574008</v>
       </c>
       <c r="D87">
-        <v>0.0450423741358387</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.03042026662910096</v>
+      </c>
+      <c r="E87">
+        <v>-0.1024746014082598</v>
+      </c>
+      <c r="F87">
+        <v>-0.09560897869229656</v>
+      </c>
+      <c r="G87">
+        <v>-0.06219390342359973</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06081590038044078</v>
+        <v>0.06036083212156842</v>
       </c>
       <c r="C88">
-        <v>-0.05951090768880827</v>
+        <v>0.06027822495053993</v>
       </c>
       <c r="D88">
-        <v>0.01506077440599876</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0176614418640164</v>
+      </c>
+      <c r="E88">
+        <v>0.01364403336980178</v>
+      </c>
+      <c r="F88">
+        <v>0.02581868542422238</v>
+      </c>
+      <c r="G88">
+        <v>0.01220874867361022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1469224788660264</v>
+        <v>0.1494070719239857</v>
       </c>
       <c r="C89">
-        <v>0.1993431646240183</v>
+        <v>-0.2102474956469856</v>
       </c>
       <c r="D89">
-        <v>-0.02199022691152794</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.03205528657461478</v>
+      </c>
+      <c r="E89">
+        <v>-0.09134955398336549</v>
+      </c>
+      <c r="F89">
+        <v>-0.08608608391602632</v>
+      </c>
+      <c r="G89">
+        <v>0.003025539082891583</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1743478208681596</v>
+        <v>0.1818210835948342</v>
       </c>
       <c r="C90">
-        <v>0.2329411573311638</v>
+        <v>-0.2404182898699455</v>
       </c>
       <c r="D90">
-        <v>-0.05980327087195965</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.06795073937378084</v>
+      </c>
+      <c r="E90">
+        <v>-0.1378157355805149</v>
+      </c>
+      <c r="F90">
+        <v>-0.1287857972482059</v>
+      </c>
+      <c r="G90">
+        <v>0.02078612952629621</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1266324885693748</v>
+        <v>0.1205973489346253</v>
       </c>
       <c r="C91">
-        <v>0.02153684231272175</v>
+        <v>-0.01922848579497174</v>
       </c>
       <c r="D91">
-        <v>0.02750614307546713</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02898690634981053</v>
+      </c>
+      <c r="E91">
+        <v>0.09206269132495644</v>
+      </c>
+      <c r="F91">
+        <v>0.0887448969299609</v>
+      </c>
+      <c r="G91">
+        <v>-0.005602160636682611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1691490155294018</v>
+        <v>0.1714323623242619</v>
       </c>
       <c r="C92">
-        <v>0.2672596757895014</v>
+        <v>-0.2782720149915165</v>
       </c>
       <c r="D92">
-        <v>-0.05933777870155434</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.05366842452104098</v>
+      </c>
+      <c r="E92">
+        <v>-0.09523804801595151</v>
+      </c>
+      <c r="F92">
+        <v>-0.1699612037769959</v>
+      </c>
+      <c r="G92">
+        <v>0.080476882384547</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1751981520827788</v>
+        <v>0.1830436382609156</v>
       </c>
       <c r="C93">
-        <v>0.2253253298834712</v>
+        <v>-0.2321103484348662</v>
       </c>
       <c r="D93">
-        <v>-0.03066820690694203</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.03097436144561205</v>
+      </c>
+      <c r="E93">
+        <v>-0.06612542965329063</v>
+      </c>
+      <c r="F93">
+        <v>-0.08483789561542639</v>
+      </c>
+      <c r="G93">
+        <v>0.07298333090766354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1195747623130243</v>
+        <v>0.1138794011049353</v>
       </c>
       <c r="C94">
-        <v>-0.03148952347939578</v>
+        <v>0.03238495380040311</v>
       </c>
       <c r="D94">
-        <v>0.05161726688124967</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0524967437553992</v>
+      </c>
+      <c r="E94">
+        <v>0.05729051403365543</v>
+      </c>
+      <c r="F94">
+        <v>0.05504265924059006</v>
+      </c>
+      <c r="G94">
+        <v>0.0352156590215862</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1190353034422472</v>
+        <v>0.1224813797520171</v>
       </c>
       <c r="C95">
-        <v>-0.1100429825290943</v>
+        <v>0.1176731955877839</v>
       </c>
       <c r="D95">
-        <v>0.002163042402730599</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.005974319851514739</v>
+      </c>
+      <c r="E95">
+        <v>0.05060421363156078</v>
+      </c>
+      <c r="F95">
+        <v>-0.04918681765558836</v>
+      </c>
+      <c r="G95">
+        <v>0.004977782858566158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1241481609796208</v>
+        <v>0.1221687322088869</v>
       </c>
       <c r="C96">
-        <v>-0.1337998165759762</v>
+        <v>0.1399664805394291</v>
       </c>
       <c r="D96">
-        <v>-0.04135815823205037</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.01185218516066783</v>
+      </c>
+      <c r="E96">
+        <v>0.09052312753754677</v>
+      </c>
+      <c r="F96">
+        <v>0.161667433409339</v>
+      </c>
+      <c r="G96">
+        <v>0.05943714451244352</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1921833866082039</v>
+        <v>0.1959185788313168</v>
       </c>
       <c r="C97">
-        <v>0.01367059691347649</v>
+        <v>-0.01465130787970349</v>
       </c>
       <c r="D97">
-        <v>-0.1437187953006295</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.1756419685149208</v>
+      </c>
+      <c r="E97">
+        <v>0.1039649684786383</v>
+      </c>
+      <c r="F97">
+        <v>0.2517995427822673</v>
+      </c>
+      <c r="G97">
+        <v>-0.8369083197211471</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1987026516766522</v>
+        <v>0.2041335880090186</v>
       </c>
       <c r="C98">
-        <v>-0.0273756698195151</v>
+        <v>0.03343499196801697</v>
       </c>
       <c r="D98">
-        <v>-0.1114780488456031</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1006359153056845</v>
+      </c>
+      <c r="E98">
+        <v>-0.02259505571215055</v>
+      </c>
+      <c r="F98">
+        <v>0.09920831188094063</v>
+      </c>
+      <c r="G98">
+        <v>0.01406975543632935</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05370854777076955</v>
+        <v>0.05357839575694596</v>
       </c>
       <c r="C99">
-        <v>-0.05518644237730558</v>
+        <v>0.0570148127921847</v>
       </c>
       <c r="D99">
-        <v>0.01011825243321934</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.009007099457115975</v>
+      </c>
+      <c r="E99">
+        <v>0.0003151499144526605</v>
+      </c>
+      <c r="F99">
+        <v>-0.04010854694355061</v>
+      </c>
+      <c r="G99">
+        <v>-0.005062825707623388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1137973253175503</v>
+        <v>0.107889204095266</v>
       </c>
       <c r="C100">
-        <v>-0.3969620412360959</v>
+        <v>0.3626439145805317</v>
       </c>
       <c r="D100">
-        <v>-0.4327408015634985</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.4800071621304424</v>
+      </c>
+      <c r="E100">
+        <v>-0.7196020219503271</v>
+      </c>
+      <c r="F100">
+        <v>0.05404382202432384</v>
+      </c>
+      <c r="G100">
+        <v>-0.01554753048346792</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0240773504477442</v>
+        <v>0.02693981806396366</v>
       </c>
       <c r="C101">
-        <v>-0.04537479442589309</v>
+        <v>0.04319673559870889</v>
       </c>
       <c r="D101">
-        <v>0.006079557894608512</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.003491066057361525</v>
+      </c>
+      <c r="E101">
+        <v>0.02629675919631082</v>
+      </c>
+      <c r="F101">
+        <v>-0.07290132373079926</v>
+      </c>
+      <c r="G101">
+        <v>0.004302663093141111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
